--- a/www/terminologies/ValueSet-jdv-technique-biologie-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-technique-biologie-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-technique-biologie-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-technique-biologie-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115833</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-technique-biologie-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-technique-biologie-cisis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115833</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:33+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,19 +174,19 @@
     <t>BDB</t>
   </si>
   <si>
-    <t>sensibilité à une molécule-bandelettes gradient sur gélose (CMI)</t>
+    <t>Sensibilité à une molécule-bandelettes gradient sur gélose (CMI)</t>
   </si>
   <si>
     <t>BDD</t>
   </si>
   <si>
-    <t>sensibilité à une molécule-disque sur gélose (diamètre d'inihibition)</t>
+    <t>Sensibilité à une molécule-disque sur gélose (diamètre d'inihibition)</t>
   </si>
   <si>
     <t>BLX</t>
   </si>
   <si>
-    <t>sensibilité à une molécule-méthodes en milieu liquide</t>
+    <t>Sensibilité à une molécule-méthodes en milieu liquide</t>
   </si>
   <si>
     <t>CAX</t>
@@ -441,6 +441,12 @@
     <t>Cytométrie en flux-fluorescence</t>
   </si>
   <si>
+    <t>DCI</t>
+  </si>
+  <si>
+    <t>Cytométrie en flux-impédance</t>
+  </si>
+  <si>
     <t>DCO</t>
   </si>
   <si>
@@ -453,12 +459,6 @@
     <t>Cytométrie en flux-activité peroxydasique</t>
   </si>
   <si>
-    <t>DCI</t>
-  </si>
-  <si>
-    <t>Cytométrie en flux-impédance</t>
-  </si>
-  <si>
     <t>DCX</t>
   </si>
   <si>
@@ -495,16 +495,22 @@
     <t>Spectrophotométrie-dosage de substrat-enzymatique-hexokinase</t>
   </si>
   <si>
+    <t>DEI</t>
+  </si>
+  <si>
+    <t>Spectrophotométrie-dosage de substrat-enzymatique-GDH</t>
+  </si>
+  <si>
     <t>DEL</t>
   </si>
   <si>
     <t>Spectrophotométrie-dosage de substrat-enzymatique-LDH</t>
   </si>
   <si>
-    <t>DEI</t>
-  </si>
-  <si>
-    <t>Spectrophotométrie-dosage de substrat-enzymatique-GDH</t>
+    <t>DEO</t>
+  </si>
+  <si>
+    <t>Spectrophotométrie-dosage de substrat-enzymatique-lactate oxydase</t>
   </si>
   <si>
     <t>DEX</t>
@@ -513,12 +519,6 @@
     <t>Spectrophotométrie-dosage de substrat-enzymatique-autre</t>
   </si>
   <si>
-    <t>DEO</t>
-  </si>
-  <si>
-    <t>Spectrophotométrie-dosage de substrat-enzymatique-lactate oxydase</t>
-  </si>
-  <si>
     <t>DGX</t>
   </si>
   <si>
@@ -723,6 +723,12 @@
     <t>Spectrophotométrie en milieu trouble-autre</t>
   </si>
   <si>
+    <t>DRX</t>
+  </si>
+  <si>
+    <t>Spectro-Réflectométrie</t>
+  </si>
+  <si>
     <t>GAX</t>
   </si>
   <si>
@@ -741,48 +747,48 @@
     <t>MLPA/RT MLPA</t>
   </si>
   <si>
+    <t>GNA</t>
+  </si>
+  <si>
+    <t>Séquençage NGS-ciblé par amplicon</t>
+  </si>
+  <si>
+    <t>GNC</t>
+  </si>
+  <si>
+    <t>Séquençage NGS-ciblé par capture</t>
+  </si>
+  <si>
+    <t>GNE</t>
+  </si>
+  <si>
+    <t>Séquençage NGS-exome</t>
+  </si>
+  <si>
+    <t>GNG</t>
+  </si>
+  <si>
+    <t>Séquençage NGS-génome complet</t>
+  </si>
+  <si>
+    <t>GNR</t>
+  </si>
+  <si>
+    <t>Séquençage NGS-RNAseq-transcriptome ciblé</t>
+  </si>
+  <si>
+    <t>GNT</t>
+  </si>
+  <si>
+    <t>Séquençage NGS-RNAseq-transcriptome complet</t>
+  </si>
+  <si>
     <t>GNX</t>
   </si>
   <si>
     <t>Séquençage NGS-autre</t>
   </si>
   <si>
-    <t>GNA</t>
-  </si>
-  <si>
-    <t>Séquençage NGS-ciblé par amplicon</t>
-  </si>
-  <si>
-    <t>GNC</t>
-  </si>
-  <si>
-    <t>Séquençage NGS-ciblé par capture</t>
-  </si>
-  <si>
-    <t>GNE</t>
-  </si>
-  <si>
-    <t>Séquençage NGS-exome</t>
-  </si>
-  <si>
-    <t>GNG</t>
-  </si>
-  <si>
-    <t>Séquençage NGS-génome complet</t>
-  </si>
-  <si>
-    <t>GNR</t>
-  </si>
-  <si>
-    <t>Séquençage NGS-RNAseq-transcriptome ciblé</t>
-  </si>
-  <si>
-    <t>GNT</t>
-  </si>
-  <si>
-    <t>Séquençage NGS-RNAseq-transcriptome complet</t>
-  </si>
-  <si>
     <t>GOX</t>
   </si>
   <si>
@@ -792,7 +798,7 @@
     <t>GPX</t>
   </si>
   <si>
-    <t>puces à ADN, CGH array</t>
+    <t>Puces à ADN, CGH array</t>
   </si>
   <si>
     <t>GRX</t>
@@ -804,7 +810,7 @@
     <t>GSX</t>
   </si>
   <si>
-    <t>séquençage Sanger</t>
+    <t>Séquençage Sanger</t>
   </si>
   <si>
     <t>GTX</t>
@@ -813,58 +819,58 @@
     <t>Short Tandem Repeat</t>
   </si>
   <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>PCR/RT PCR-analyse de fragment</t>
+  </si>
+  <si>
+    <t>GUB</t>
+  </si>
+  <si>
+    <t>PCR/RT PCR et génotypage sur bandelette</t>
+  </si>
+  <si>
+    <t>GUD</t>
+  </si>
+  <si>
+    <t>PCR/RT PCR-digitale</t>
+  </si>
+  <si>
+    <t>GUF</t>
+  </si>
+  <si>
+    <t>PCR/RT PCR-point final</t>
+  </si>
+  <si>
+    <t>GUP</t>
+  </si>
+  <si>
+    <t>PCR/RT PCR et génotypage sur puce</t>
+  </si>
+  <si>
+    <t>GUR</t>
+  </si>
+  <si>
+    <t>PCR/RT PCR-temps réel</t>
+  </si>
+  <si>
     <t>GWX</t>
   </si>
   <si>
-    <t>pyroséquençage</t>
-  </si>
-  <si>
-    <t>GUF</t>
-  </si>
-  <si>
-    <t>PCR/RT PCR-point final</t>
-  </si>
-  <si>
-    <t>GUR</t>
-  </si>
-  <si>
-    <t>PCR/RT PCR-temps réel</t>
-  </si>
-  <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>PCR/RT PCR-analyse de fragment</t>
-  </si>
-  <si>
-    <t>GUD</t>
-  </si>
-  <si>
-    <t>PCR/RT PCR-digitale</t>
-  </si>
-  <si>
-    <t>GUB</t>
-  </si>
-  <si>
-    <t>PCR/RT PCR et génotypage sur bandelette</t>
-  </si>
-  <si>
-    <t>GUP</t>
-  </si>
-  <si>
-    <t>PCR/RT PCR et génotypage sur puce</t>
+    <t>Pyroséquençage</t>
+  </si>
+  <si>
+    <t>GYA</t>
+  </si>
+  <si>
+    <t>Hybridation avec amplification du signal</t>
   </si>
   <si>
     <t>GYF</t>
   </si>
   <si>
-    <t>hybridation-FISH</t>
-  </si>
-  <si>
-    <t>GYA</t>
-  </si>
-  <si>
-    <t>hybridation avec amplification du signal</t>
+    <t>Hybridation-FISH</t>
   </si>
   <si>
     <t>HPC</t>
@@ -891,6 +897,12 @@
     <t>Vitesse d'agrégation-photométrie capillaire</t>
   </si>
   <si>
+    <t>JAQ</t>
+  </si>
+  <si>
+    <t>Vitesse d'agrégation-photométrie (hors capillaire)</t>
+  </si>
+  <si>
     <t>JAR</t>
   </si>
   <si>
@@ -939,36 +951,54 @@
     <t>Microscopie-immunofluorescence indirecte (IFI)</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Malassez</t>
+  </si>
+  <si>
     <t>MIB</t>
   </si>
   <si>
     <t>Microscopie-avec coloration</t>
   </si>
   <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Neubauer classique</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Leja</t>
+  </si>
+  <si>
+    <t>MIE</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Fast Read 102</t>
+  </si>
+  <si>
+    <t>MIF</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Fuchs Rosenthal</t>
+  </si>
+  <si>
+    <t>MIG</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Bürker-Türk</t>
+  </si>
+  <si>
     <t>MIH</t>
   </si>
   <si>
     <t>Microscopie-sans coloration</t>
   </si>
   <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>Comptage microscopique-cellule Malassez</t>
-  </si>
-  <si>
-    <t>MIF</t>
-  </si>
-  <si>
-    <t>Comptage microscopique-cellule Fuch Rosenthal</t>
-  </si>
-  <si>
-    <t>MIG</t>
-  </si>
-  <si>
-    <t>Comptage microscopique-cellule Bruker-Turc</t>
-  </si>
-  <si>
     <t>MIK</t>
   </si>
   <si>
@@ -981,10 +1011,10 @@
     <t>Comptage microscopique-cellule Lemaur</t>
   </si>
   <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>Comptage microscopique-cellule Neubauer classique</t>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Nageotte</t>
   </si>
   <si>
     <t>MIN</t>
@@ -993,106 +1023,118 @@
     <t>Comptage microscopique-cellule Neubauer améliorée</t>
   </si>
   <si>
+    <t>MIO</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Vetriplast</t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>Comptage microscopique-cellule Bürker</t>
+  </si>
+  <si>
     <t>MIS</t>
   </si>
   <si>
     <t>Comptage microscopique-cellule Makler</t>
   </si>
   <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>Comptage microscopique-cellule Bruker</t>
-  </si>
-  <si>
     <t>MIT</t>
   </si>
   <si>
     <t>Comptage microscopique-cellule Thoma</t>
   </si>
   <si>
-    <t>MIX</t>
-  </si>
-  <si>
-    <t>Comptage microscopique-cellule autre</t>
-  </si>
-  <si>
     <t>UAA</t>
   </si>
   <si>
-    <t>immuno-analyse-agglutination/hémagglutination</t>
+    <t>Immuno-analyse-agglutination/hémagglutination</t>
   </si>
   <si>
     <t>UAI</t>
   </si>
   <si>
-    <t>immuno-analyse-inhibition de l'agglutination</t>
+    <t>Immuno-analyse-inhibition de l'agglutination</t>
   </si>
   <si>
     <t>UCX</t>
   </si>
   <si>
-    <t>immuno-analyse-chimiluminescence</t>
+    <t>Immuno-analyse-chimiluminescence</t>
   </si>
   <si>
     <t>UEA</t>
   </si>
   <si>
-    <t>immuno-analyse-UV/visible</t>
+    <t>Immuno-analyse-UV/visible</t>
   </si>
   <si>
     <t>UEC</t>
   </si>
   <si>
-    <t>immuno-chromatographie-détection visible</t>
+    <t>Immuno-chromatographie-détection visible</t>
   </si>
   <si>
     <t>UFA</t>
   </si>
   <si>
-    <t>immuno-analyse-détection en fluorescence</t>
+    <t>Immuno-analyse-détection en fluorescence</t>
   </si>
   <si>
     <t>UFC</t>
   </si>
   <si>
-    <t>immuno-chromatographie-détection en fluorescence</t>
+    <t>Immuno-chromatographie-détection en fluorescence</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>immunoprécipitation-immunodiffusion radiale (IDR)</t>
+    <t>Immunoprécipitation-immunodiffusion radiale (IDR)</t>
   </si>
   <si>
     <t>UIX</t>
   </si>
   <si>
-    <t>immuno-analyse-détection isotopique-code générique</t>
+    <t>Immuno-analyse-détection isotopique-code générique</t>
   </si>
   <si>
     <t>UNX</t>
   </si>
   <si>
-    <t>immuno-analyse-néphélémétrie</t>
+    <t>Immuno-analyse-néphélémétrie</t>
+  </si>
+  <si>
+    <t>UPX</t>
+  </si>
+  <si>
+    <t>Immuno-analyse-neutralisation Ag/Ac</t>
   </si>
   <si>
     <t>USX</t>
   </si>
   <si>
-    <t>immuno-analyse-blot/dots</t>
-  </si>
-  <si>
-    <t>UPX</t>
-  </si>
-  <si>
-    <t>immuno-analyse-neutralisation Ag/Ac</t>
+    <t>Immuno-analyse-blot/dots</t>
   </si>
   <si>
     <t>UTX</t>
   </si>
   <si>
-    <t>immuno-analyse-turbidimétrie</t>
+    <t>Immuno-analyse-turbidimétrie</t>
+  </si>
+  <si>
+    <t>UVA</t>
+  </si>
+  <si>
+    <t>Immuno-electrophorèse</t>
+  </si>
+  <si>
+    <t>UVB</t>
+  </si>
+  <si>
+    <t>Immunofixation</t>
   </si>
   <si>
     <t>VAX</t>
@@ -1119,34 +1161,28 @@
     <t>Isofocalisation</t>
   </si>
   <si>
-    <t>UVA</t>
-  </si>
-  <si>
-    <t>Immuno-electrophorèse</t>
-  </si>
-  <si>
-    <t>UVB</t>
-  </si>
-  <si>
-    <t>immunofixation</t>
-  </si>
-  <si>
     <t>VEB</t>
   </si>
   <si>
     <t>Co-électrosynérèse, électro-immunodiffusion bidimensionnelle</t>
   </si>
   <si>
+    <t>ZAX</t>
+  </si>
+  <si>
+    <t>Centrifugation-mesure d'un rapport de hauteurs</t>
+  </si>
+  <si>
     <t>ZCX</t>
   </si>
   <si>
     <t>Calcul mathématique</t>
   </si>
   <si>
-    <t>ZAX</t>
-  </si>
-  <si>
-    <t>Centrifugation-mesure d'un rapport de hauteurs</t>
+    <t>ZDX</t>
+  </si>
+  <si>
+    <t>Abaissement cryoscopique</t>
   </si>
   <si>
     <t>ZQX</t>
@@ -1155,28 +1191,22 @@
     <t>Thermochimie-bombe calorimétrique</t>
   </si>
   <si>
+    <t>ZRX</t>
+  </si>
+  <si>
+    <t>Réfractométrie</t>
+  </si>
+  <si>
     <t>ZTX</t>
   </si>
   <si>
     <t>Titrimétrie</t>
   </si>
   <si>
-    <t>ZRX</t>
-  </si>
-  <si>
-    <t>Réfractométrie</t>
-  </si>
-  <si>
     <t>ZVX</t>
   </si>
   <si>
     <t>Tension de vapeur</t>
-  </si>
-  <si>
-    <t>ZDX</t>
-  </si>
-  <si>
-    <t>Abaissement cryoscopique</t>
   </si>
   <si>
     <t/>
@@ -1452,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2915,15 +2945,55 @@
         <v>388</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
